--- a/doc/박선우/기능 명세서/기능 명세서.xlsx
+++ b/doc/박선우/기능 명세서/기능 명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\타임캡슐\기능명세\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\psw\github\time-rocket\doc\박선우\기능 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F3460-637C-41C9-8EDA-C9D5BF1EA06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8BA3E0-ADFC-4212-B588-3B06F9EDA7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,68 +30,439 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{3AA6908A-F21A-4A51-AD72-8BE0BCEBD3D1}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{9F3F2AD0-B349-4A92-A1CD-557A34F9FA26}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>랜덤</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 6</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자리</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>코드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">,
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유효성</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">검사
 </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이메일
+이메일은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 255</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름
+최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 20</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>닉네임
+최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 20</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원가입</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행
+“이메일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -102,87 +473,1250 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>코드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유효시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">설정
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상태”</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>와</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>“개인정보</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동의”</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>우선적으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>“이메일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증”</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실패한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상태에서는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원가입이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행되지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않으며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>“이메일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행하셔야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>”</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>“개인정보</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동의”</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>“미동의“</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상태라면</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원가입이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행되지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않으며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>“개인정보</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동의에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하셔야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원가입이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행됩니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>”</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ </t>
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{E4EBEEF0-1159-4626-AE3C-9C1418884F41}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{20C5BEA5-4E2B-49E6-9BC2-30388358DBE1}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>임시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증코드
+인증코드는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>랜덤</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증코드의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{FDFAEC64-E332-426E-96A8-7416E7829F24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 8</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 20</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -193,145 +1727,1619 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미검증</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> DB</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>비밀번호는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>업데이트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>되지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않는다</t>
-        </r>
-        <r>
-          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필드의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일치하지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>＂비밀번호가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일치하지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>＂</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{6B5B3122-2533-441C-9558-2A30493C9348}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개인정보 이용약관
+개인정보 이용을 동의하지 않을 경우 회원가입 진행이 제한됩니다.
+미동의 할 경우 "개인정보 이용 동의가 필요합니다." 메시지를 출력합니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{5E6BF7C5-5C59-40EB-B4E3-A159C2CEC9CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">로그인
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈칸이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이메일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>닉네임</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>또는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈칸입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정보가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올바르지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이디</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>또는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일치하지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{1F313C26-93D1-4F36-B220-9FEC2061F35F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잠금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">해제일
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잠금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제일을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택하지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> “</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잠금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제일을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택하셔야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.” </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{29BFB0D8-D2B7-4737-B83F-CEE810CC3DB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수신자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유형
+로켓</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수신자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유형을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택하지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수신자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유형을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">."  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{5B8B6931-D6F8-465E-A4AD-C973FD83EBBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름
+이름은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 255</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">제한
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용
+내용은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Text </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>형태로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -340,7 +3348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,10 +3398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일 인증, 비밀번호 일치 검증, 닉네임 중복체크 시행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일반 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,8 +3410,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>구글 로그인, 네이버 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAuth2.0 API 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일에 인증코드를 발급하여 인증코드 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTP API 사용하여 인증코드 발급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증 후 임시비밀번호 발급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발급받은 임시비밀번호를 검증해야 DB업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원 로그인 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 사이트 소개 및 FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤 형태의 설명 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드라인 제외 다른 페이지 사용 시 모달창으로 로그인 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 메뉴를 통해 여러 기능에 쉽게 접근할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로켓 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠금 해제일 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로켓의 내용물로 이미지파일, 비디오파일을 첨부할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로켓의 이름과 내용 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인이 선택되지 않을 경우 기본 이미지로 로켓디자인 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로켓 잠금 해제일을 지정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">잠금 해제일은 당일날로부터 후일(미래)만 선택 가능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 시 받는 사람을 "나에게 보내기" or "다른 사람에게 보내기" 로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신자 유형 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용물 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 중인 로켓 제작 데이터를 일정 시간 동안 서버에 임시 보관할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 시, 임시 저장된 로켓이 있는 경우 불러오기 옵션을 통해 기존 데이터를 조회 및 복구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 박스에서 선택하여 로켓 디자인을 교체할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시저장 기간은 7일, 이후 자동 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정해진 수신자로 로켓 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 이용약관 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호와 비밀번호 확인 필드의 일치 여부 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비밀번호는 “영문 소문자, 숫자, 특수문자(!@#$%^&amp;*)” 를 포함하며 특수문자는 비밀번호의 맨 앞 글자에 올 수 없습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임의 유일성 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 사이트의 개인정보 이용약관을 확인하고 동의 여부를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스를 사용하여 “동의” 또는 “미동의”를 선택할 수 있습니다,  “모두 동의“ 버튼을 클릭 시 모든 항목이 체크됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">로그인 시 Access Token 및 Refresh Token 발급 </t>
+      <t xml:space="preserve">로그인(인증에 성공) 시  Access Token 및 Refresh Token 발급 </t>
     </r>
     <r>
       <rPr>
@@ -424,59 +3596,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구글 로그인, 네이버 로그인</t>
+    <t>마이룸 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OAuth2.0 API 사용</t>
+    <t>가이드라인 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일에 인증코드를 발급하여 인증코드 검증</t>
+    <t>*** 기능의 유효성 검사와 제한사항 및 에러 메시지는 "제한 사항" 필드에 "메모" 로 삽입되어 있습니다. ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SMTP API 사용하여 인증코드 발급</t>
+    <t>필드의 유효성 검증이 실패 시 실패한 필드로 Autofocus 되며, 제한 사항을 메시지로 출력</t>
+  </si>
+  <si>
+    <t>필드의 유효성 검증이 실패 시 실패한 필드로 Autofocus 되며, 제한 사항을 메시지로 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일 인증 후 임시비밀번호 발급</t>
+    <t>수신자 유형은 체크박스 형태,   "다른 사람에게 보내기" 선택 시 "수신자 이메일 주소" 필드가 활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발급받은 임시비밀번호를 검증해야 DB업데이트</t>
+    <t>비회원은 커뮤니티 일정시간(1분) 열람 가능,  그 외 페이지 접근 시 로그인 리다이렉트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비회원</t>
+    <t>지원하는 파일 형식 / 파일 당 최대 용량: 100MB
+총 업로드 가능한 최대 용량: 500MB (여러 개 업로드 시 합산)  =&gt; 아직 미정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인트로</t>
+    <t>임시 저장된 데이터가 없을 경우 불러오기 기능 비활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가이드라인</t>
+    <t>활동목록 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비회원 로그인 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 사이트 소개 및 FAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크롤 형태의 설명 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드라인 제외 다른 페이지 사용 시 1분이후 로그인 유도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모달창으로 로그인을 유도, 비회원은 일부 페이지 사용 불가</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">게시글 관리, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공감한 목록 관리, 댓글 관리</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +3664,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,28 +3712,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -561,31 +3794,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -860,2159 +4199,2554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="97.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.25">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="33">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5">
         <v>27</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="5">
+        <v>32</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="5">
+        <v>33</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="5">
+        <v>34</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B2:B6"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/박선우/기능 명세서/기능 명세서.xlsx
+++ b/doc/박선우/기능 명세서/기능 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\psw\github\time-rocket\doc\박선우\기능 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8BA3E0-ADFC-4212-B588-3B06F9EDA7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE6BBF4-7A72-4081-8B40-223EBBDEA824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3348,7 +3348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3657,6 +3657,10 @@
       </rPr>
       <t>공감한 목록 관리, 댓글 관리</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3786,7 +3790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3859,38 +3863,30 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3904,13 +3900,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4202,7 +4222,7 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4218,553 +4238,569 @@
       <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="26.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="33">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1"/>

--- a/doc/박선우/기능 명세서/기능 명세서.xlsx
+++ b/doc/박선우/기능 명세서/기능 명세서.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\psw\github\time-rocket\doc\박선우\기능 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939F00CE-8172-4C2F-8D2D-73483E139AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C02675-4B33-4726-ADE1-B9BDE21936A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="기능 명세서" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1411,7 +1411,240 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>인증코드
+          <t>이메일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증
+인증</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실패</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잘못된</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증코드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재확인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하셔야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력
+인증코드
 인증코드는</t>
         </r>
         <r>
@@ -1560,17 +1793,102 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>분입니다</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, 5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분동안</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동일한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인증코드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1585,6 +1903,198 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>비밀번호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유효성</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">검사
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 8~20</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정하지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>비밀번호는</t>
         </r>
         <r>
@@ -1595,6 +2105,641 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> 8~20</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사이로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">정규표현식
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>글자에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특수문자가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>글자는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특수문자가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>될</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영문</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소문자가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve"> </t>
         </r>
         <r>
@@ -1616,7 +2761,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 8</t>
+          <t xml:space="preserve"> 1</t>
         </r>
         <r>
           <rPr>
@@ -1637,71 +2782,1052 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>최대</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 20</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자로</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>제한합니다</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. 
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함되지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호에는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영문</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소문자가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함되어야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함되지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호에는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함되어야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호에는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특수문자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(!@#$%^&amp;*) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함되지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비밀번호에는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특수문자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(!@#$%^&amp;*) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함되어야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">" </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
         </r>
         <r>
           <rPr>
@@ -2532,7 +4658,134 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">해제일
+          <t>해제일
+잠금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제일은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2049</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>년</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 12</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>월</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 31</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일까지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">제공
 </t>
         </r>
         <r>
@@ -3146,7 +5399,70 @@
             <charset val="129"/>
           </rPr>
           <t>이름
-이름은</t>
+이름의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>길이는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
         </r>
         <r>
           <rPr>
@@ -3230,7 +5546,17 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">제한
+          <t>제한됩니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
 </t>
         </r>
         <r>
@@ -3238,8 +5564,451 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>길이를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초과할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> " </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>길이는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 255</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한됩니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈칸일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">" </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3249,6 +6018,17 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3275,68 +6055,732 @@
             <charset val="129"/>
           </rPr>
           <t>내용
-내용은</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Text </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>형태로</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>입력가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
+내용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>길이는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2000</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한됩니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>길이가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초과할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>길이는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2000</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제한됩니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈칸일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">" </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유효성</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실패</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제작</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -5350,6 +8794,783 @@
         </r>
       </text>
     </comment>
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{A0596282-1CA8-4F47-80DD-EF693AF29DDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색
+검색창</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈칸일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
+검색창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미만일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초과할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이내로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F40" authorId="0" shapeId="0" xr:uid="{132AD346-AB94-4DDA-9675-36BFF82B430F}">
       <text>
         <r>
@@ -6947,7 +11168,750 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>분류</t>
+          <t>분류
+검색
+검색창</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈칸일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
+검색창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미만일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
+검색창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초과할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이내로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">발생
+</t>
         </r>
       </text>
     </comment>
@@ -8751,6 +13715,747 @@
             <charset val="129"/>
           </rPr>
           <t>검색
+검색창</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈칸일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
+검색창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미만일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
+검색창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초과할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이내로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
 검색</t>
         </r>
         <r>
@@ -9161,7 +14866,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>. (</t>
+          <t>.
+(</t>
         </r>
         <r>
           <rPr>
@@ -9287,8 +14993,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">) 
-</t>
+          <t xml:space="preserve">) </t>
         </r>
       </text>
     </comment>
@@ -10468,6 +16173,747 @@
             <charset val="129"/>
           </rPr>
           <t>정렬
+검색창</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈칸일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
+검색창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미만일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
+검색창에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력값이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초과할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">경우
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색어는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이내로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">." </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메시지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하며</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생
 검색</t>
         </r>
         <r>
@@ -12413,6 +18859,217 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공지사항</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>알림</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공지사항이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등록될</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>알림을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
 1:1 </t>
         </r>
         <r>
@@ -12825,6 +19482,596 @@
             <charset val="129"/>
           </rPr>
           <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>알림을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수신</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>알림</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다른</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사람에게</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수신받을때</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>알림을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있습니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잠금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>알림</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로켓의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>잠금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해제일이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만료되어</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오픈가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">" </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상태가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>될</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
         </r>
         <r>
           <rPr>
@@ -13512,14 +20759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진열장 내 로켓의 수, 로켓들을 전시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로켓의 발신(수신) 내역에서 보관함의 로켓 수 그리고 로켓을 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"보관함" 에서 "오픈 가능" 상태의 로켓을 "공개 형태" 로 전환 시 "진열장" 에 나타남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13621,10 +20860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알림 내역에 관한 설정은 "내 설정 – 알림설정” 에서  수정 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13654,6 +20889,18 @@
   </si>
   <si>
     <t>*** 관리자 페이지 기능 명세 진행중( 250404 ~ ) ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로켓의 발신(수신) 내역에서 보관함의 로켓 갯수 그리고 로켓을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진열장 내 로켓의 갯수와 로켓들을 전시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 개별 알림을 수동으로 삭제 가능,   "모두 읽음" 이라는 일괄 삭제 기능 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13966,27 +21213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13998,15 +21224,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14020,6 +21237,42 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14028,12 +21281,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14329,49 +21576,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="30"/>
-    <col min="3" max="3" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="30"/>
+    <col min="1" max="2" width="9" style="17"/>
+    <col min="3" max="3" width="16" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="26.25">
       <c r="A4" s="2" t="s">
@@ -14400,10 +21647,10 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -14423,8 +21670,8 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -14442,8 +21689,8 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
@@ -14461,8 +21708,8 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
@@ -14476,8 +21723,8 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
@@ -14495,8 +21742,8 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
@@ -14514,8 +21761,8 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -14531,8 +21778,8 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
@@ -14544,23 +21791,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="22" customFormat="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+    <row r="13" spans="1:7" s="21" customFormat="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -14578,8 +21825,8 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
@@ -14598,7 +21845,7 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
@@ -14610,23 +21857,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="31" customFormat="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+    <row r="17" spans="1:7" s="18" customFormat="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -14644,8 +21891,8 @@
       <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
@@ -14653,16 +21900,14 @@
         <v>75</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
@@ -14678,36 +21923,36 @@
       <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="11" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="31" customFormat="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+    <row r="22" spans="1:7" s="18" customFormat="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -14725,8 +21970,8 @@
       <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
@@ -14744,8 +21989,8 @@
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
@@ -14763,8 +22008,8 @@
       <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="1" t="s">
         <v>42</v>
       </c>
@@ -14774,14 +22019,14 @@
       <c r="F26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="33">
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
@@ -14797,8 +22042,8 @@
       <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
@@ -14814,8 +22059,8 @@
       <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="1" t="s">
         <v>43</v>
       </c>
@@ -14831,8 +22076,8 @@
       <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
@@ -14844,23 +22089,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="31" customFormat="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
+    <row r="31" spans="1:7" s="18" customFormat="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>24</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="22" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -14880,8 +22125,8 @@
       <c r="A33" s="1">
         <v>25</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="1" t="s">
         <v>139</v>
       </c>
@@ -14891,7 +22136,7 @@
       <c r="F33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14899,8 +22144,8 @@
       <c r="A34" s="1">
         <v>26</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
@@ -14916,8 +22161,8 @@
       <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="1" t="s">
         <v>86</v>
       </c>
@@ -14933,8 +22178,8 @@
       <c r="A36" s="1">
         <v>28</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
@@ -14948,49 +22193,51 @@
       <c r="A37" s="1">
         <v>29</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>30</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:8" s="31" customFormat="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
+    <row r="39" spans="1:8" s="18" customFormat="1">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="1:8" ht="66">
       <c r="A40" s="1">
         <v>31</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="23" t="s">
         <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -15002,17 +22249,17 @@
       <c r="F40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>32</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="1" t="s">
         <v>110</v>
       </c>
@@ -15022,17 +22269,17 @@
       <c r="F41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="16"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>33</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="1" t="s">
         <v>133</v>
       </c>
@@ -15045,14 +22292,14 @@
       <c r="G42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="16"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>34</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="1" t="s">
         <v>114</v>
       </c>
@@ -15061,14 +22308,14 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="16"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>35</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="1" t="s">
         <v>96</v>
       </c>
@@ -15077,14 +22324,14 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>36</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="1" t="s">
         <v>97</v>
       </c>
@@ -15095,14 +22342,14 @@
       <c r="G45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H45" s="16"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>37</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
@@ -15111,21 +22358,21 @@
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H46" s="16"/>
+        <v>169</v>
+      </c>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>38</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>67</v>
@@ -15133,7 +22380,7 @@
       <c r="G47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="32"/>
@@ -15148,10 +22395,10 @@
       <c r="A49" s="1">
         <v>39</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="22" t="s">
         <v>116</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -15169,8 +22416,8 @@
       <c r="A50" s="1">
         <v>40</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="1" t="s">
         <v>122</v>
       </c>
@@ -15186,13 +22433,13 @@
       <c r="A51" s="1">
         <v>41</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>67</v>
@@ -15205,8 +22452,8 @@
       <c r="A52" s="1">
         <v>42</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="1" t="s">
         <v>118</v>
       </c>
@@ -15224,8 +22471,8 @@
       <c r="A53" s="1">
         <v>43</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="1" t="s">
         <v>132</v>
       </c>
@@ -15243,8 +22490,8 @@
       <c r="A54" s="1">
         <v>44</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="1" t="s">
         <v>117</v>
       </c>
@@ -15252,16 +22499,16 @@
         <v>135</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="19" t="s">
-        <v>147</v>
+      <c r="G54" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>45</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="1" t="s">
         <v>119</v>
       </c>
@@ -15279,8 +22526,8 @@
       <c r="A56" s="1">
         <v>46</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="1" t="s">
         <v>120</v>
       </c>
@@ -15303,36 +22550,36 @@
       <c r="A58" s="1">
         <v>47</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="22" t="s">
         <v>138</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>48</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>67</v>
@@ -15343,13 +22590,13 @@
       <c r="A60" s="1">
         <v>49</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>67</v>
@@ -15360,13 +22607,13 @@
       <c r="A61" s="1">
         <v>50</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>67</v>
@@ -15388,57 +22635,57 @@
       <c r="A63" s="1">
         <v>51</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>151</v>
+      <c r="B63" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>52</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>53</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="19" t="s">
-        <v>160</v>
+      <c r="G65" s="12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -15454,17 +22701,17 @@
       <c r="A67" s="1">
         <v>54</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="1"/>
@@ -15473,13 +22720,13 @@
       <c r="A68" s="1">
         <v>55</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>67</v>
@@ -15490,17 +22737,17 @@
       <c r="A69" s="1">
         <v>56</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -15516,38 +22763,38 @@
       <c r="A71" s="1">
         <v>57</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>169</v>
+      <c r="C71" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>58</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -15579,7 +22826,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>

--- a/doc/박선우/기능 명세서/기능 명세서.xlsx
+++ b/doc/박선우/기능 명세서/기능 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\psw\github\time-rocket\doc\박선우\기능 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C02675-4B33-4726-ADE1-B9BDE21936A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC06AEE-3558-49A1-88F0-1D862A3D63EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20253,10 +20253,6 @@
   </si>
   <si>
     <t>이메일 인증 후 임시비밀번호 발급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발급받은 임시비밀번호를 검증해야 DB업데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -20903,6 +20899,10 @@
     <t>회원은 개별 알림을 수동으로 삭제 가능,   "모두 읽음" 이라는 일괄 삭제 기능 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>발급받은 임시비밀번호로 DB가 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -21042,7 +21042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -21183,11 +21183,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -21213,9 +21266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -21225,44 +21275,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21285,7 +21314,64 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -21574,51 +21660,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="17"/>
-    <col min="3" max="3" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="9" style="12"/>
+    <col min="3" max="3" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="26.25">
       <c r="A4" s="2" t="s">
@@ -21637,7 +21723,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
@@ -21647,10 +21733,10 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -21660,18 +21746,18 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -21679,7 +21765,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
@@ -21689,32 +21775,32 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="1"/>
@@ -21723,27 +21809,27 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
@@ -21751,18 +21837,18 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -21778,8 +21864,8 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
@@ -21788,54 +21874,54 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="21" customFormat="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>22</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -21845,59 +21931,59 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="18" customFormat="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="13" customFormat="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>12</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
@@ -21906,683 +21992,675 @@
       <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="18" customFormat="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="G21" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="13" customFormat="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>28</v>
+      <c r="C23" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="33">
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="18" customFormat="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="13" customFormat="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>24</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="49.5">
+    </row>
+    <row r="33" spans="1:7" ht="49.5">
       <c r="A33" s="1">
         <v>25</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>26</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>28</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>29</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>30</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:8" s="18" customFormat="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:8" ht="66">
+    <row r="39" spans="1:7" s="13" customFormat="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" ht="66">
       <c r="A40" s="1">
         <v>31</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>91</v>
+      <c r="C40" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>32</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>33</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>34</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>35</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>36</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>37</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>38</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>39</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>116</v>
+      <c r="C49" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>40</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>41</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>42</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>43</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="33">
       <c r="A54" s="1">
         <v>44</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="12" t="s">
-        <v>145</v>
+      <c r="G54" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>45</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>46</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="35"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>47</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>48</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -22590,16 +22668,16 @@
       <c r="A60" s="1">
         <v>49</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -22607,111 +22685,111 @@
       <c r="A61" s="1">
         <v>50</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="35"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>51</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>149</v>
+      <c r="B63" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>52</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>53</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="12" t="s">
-        <v>158</v>
+      <c r="G65" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="35"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>54</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="1"/>
@@ -22720,16 +22798,16 @@
       <c r="A68" s="1">
         <v>55</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G68" s="1"/>
     </row>
@@ -22737,121 +22815,121 @@
       <c r="A69" s="1">
         <v>56</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="35"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>57</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>166</v>
+      <c r="C71" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>58</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="38"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="38"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="38"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
+      <c r="A76" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="41"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="41"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="44"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6"/>
@@ -24519,7 +24597,7 @@
       <c r="G263" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -24540,7 +24618,6 @@
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="A1:G3"/>
@@ -24552,6 +24629,8 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
